--- a/src/WebMarket/WebMarket/App_Data/Producer.xlsx
+++ b/src/WebMarket/WebMarket/App_Data/Producer.xlsx
@@ -4,17 +4,17 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="165" windowWidth="14805" windowHeight="7950"/>
   </bookViews>
   <sheets>
     <sheet name="Producer" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="122211"/>
+  <calcPr calcId="122211" refMode="R1C1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="12">
   <si>
     <t>Name</t>
   </si>
@@ -47,6 +47,9 @@
   </si>
   <si>
     <t>Volter</t>
+  </si>
+  <si>
+    <t>BB</t>
   </si>
 </sst>
 </file>
@@ -385,10 +388,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C7"/>
+  <dimension ref="A1:C8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -473,6 +476,17 @@
         <v>8.11</v>
       </c>
     </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>11</v>
+      </c>
+      <c r="B8" t="s">
+        <v>4</v>
+      </c>
+      <c r="C8">
+        <v>8.11</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/src/WebMarket/WebMarket/App_Data/Producer.xlsx
+++ b/src/WebMarket/WebMarket/App_Data/Producer.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="13">
   <si>
     <t>Name</t>
   </si>
@@ -49,7 +49,10 @@
     <t>Volter</t>
   </si>
   <si>
-    <t>BB</t>
+    <t>B.B. Battery</t>
+  </si>
+  <si>
+    <t>Вольт</t>
   </si>
 </sst>
 </file>
@@ -388,10 +391,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C8"/>
+  <dimension ref="A1:C9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+      <selection activeCell="O10" sqref="O10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -418,7 +421,7 @@
         <v>4</v>
       </c>
       <c r="C2">
-        <v>8.11</v>
+        <v>8.15</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
@@ -429,7 +432,7 @@
         <v>6</v>
       </c>
       <c r="C3">
-        <v>8.11</v>
+        <v>8.15</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
@@ -440,7 +443,7 @@
         <v>4</v>
       </c>
       <c r="C4">
-        <v>8.11</v>
+        <v>8.15</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
@@ -451,7 +454,7 @@
         <v>6</v>
       </c>
       <c r="C5">
-        <v>8.11</v>
+        <v>8.15</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
@@ -462,7 +465,7 @@
         <v>6</v>
       </c>
       <c r="C6">
-        <v>8.11</v>
+        <v>8.15</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
@@ -473,7 +476,7 @@
         <v>6</v>
       </c>
       <c r="C7">
-        <v>8.11</v>
+        <v>8.15</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
@@ -484,7 +487,18 @@
         <v>4</v>
       </c>
       <c r="C8">
-        <v>8.11</v>
+        <v>8.15</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>12</v>
+      </c>
+      <c r="B9" t="s">
+        <v>4</v>
+      </c>
+      <c r="C9">
+        <v>8.15</v>
       </c>
     </row>
   </sheetData>

--- a/src/WebMarket/WebMarket/App_Data/Producer.xlsx
+++ b/src/WebMarket/WebMarket/App_Data/Producer.xlsx
@@ -9,12 +9,12 @@
   <sheets>
     <sheet name="Producer" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="122211" refMode="R1C1"/>
+  <calcPr calcId="145621" refMode="R1C1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="14">
   <si>
     <t>Name</t>
   </si>
@@ -53,6 +53,9 @@
   </si>
   <si>
     <t>Вольт</t>
+  </si>
+  <si>
+    <t>Vimar</t>
   </si>
 </sst>
 </file>
@@ -391,10 +394,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C9"/>
+  <dimension ref="A1:C10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O10" sqref="O10"/>
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -501,6 +504,17 @@
         <v>8.15</v>
       </c>
     </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>13</v>
+      </c>
+      <c r="B10" t="s">
+        <v>4</v>
+      </c>
+      <c r="C10">
+        <v>8.15</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
